--- a/output/DM1.xlsx
+++ b/output/DM1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F15011"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,193 +908,193 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E31" ca="1" si="0">DATE(2020,1,1)+RANDBETWEEN(0,480)</f>
-        <v>44084</v>
+        <v>44154</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44127</v>
+        <v>44284</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F31" ca="1" si="1">RANDBETWEEN(1,50)</f>
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44171</v>
+        <v>44023</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44287</v>
+        <v>44296</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>44111</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44178</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44007</v>
+        <v>44071</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
@@ -1102,29 +1102,29 @@
       </c>
       <c r="D9">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43974</v>
+        <v>44141</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
@@ -1132,129 +1132,129 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44029</v>
+        <v>44068</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44132</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44182</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44217</v>
+        <v>44220</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44111</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
@@ -1262,47 +1262,47 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44209</v>
+        <v>44022</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44019</v>
+        <v>44081</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
@@ -1314,259 +1314,259 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44166</v>
+        <v>43933</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43895</v>
+        <v>43920</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44226</v>
+        <v>43885</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43954</v>
+        <v>44120</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44109</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44089</v>
+        <v>44162</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44271</v>
+        <v>44019</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43938</v>
+        <v>44069</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43905</v>
+        <v>44203</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
@@ -1574,21 +1574,21 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43955</v>
+        <v>44298</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D28">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43967</v>
+        <v>44244</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
@@ -1622,25 +1622,25 @@
       </c>
       <c r="D29">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44273</v>
+        <v>44188</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
@@ -1648,29 +1648,29 @@
       </c>
       <c r="D30">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43941</v>
+        <v>44223</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f ca="1">RANDBETWEEN(Produtos!$A$2,Produtos!$A$33)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <f ca="1">RANDBETWEEN(Cores!$A$2,Cores!$A$28)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <f ca="1">RANDBETWEEN(Tamanhos!$A$2,Tamanhos!$A$5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <f ca="1">RANDBETWEEN(Estados!$A$2,Estados!$A$28)</f>
@@ -1678,11 +1678,11 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43910</v>
+        <v>44189</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">RANDBETWEEN(8,18)/100</f>
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E28" ca="1" si="0">RANDBETWEEN(8,18)/100</f>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -3292,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
